--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uscedu-my.sharepoint.com/personal/baihuaya_usc_edu/Documents/Fall_2022/csci-570/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_F25DC773A252ABDACC10481BB1D847945ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10BB5B46-6431-4FEA-9E2A-444EC7974957}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="11_F25DC773A252ABDACC10481BB1D847945ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F53A30E-6BE3-4F9A-BB6F-5A1765D4DFF2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -322,46 +322,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>17208</c:v>
+                  <c:v>12756</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17408</c:v>
+                  <c:v>12672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17572</c:v>
+                  <c:v>13276</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17480</c:v>
+                  <c:v>13968</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18248</c:v>
+                  <c:v>15040</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17964</c:v>
+                  <c:v>18332</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18008</c:v>
+                  <c:v>23080</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18488</c:v>
+                  <c:v>28944</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18376</c:v>
+                  <c:v>36208</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18188</c:v>
+                  <c:v>54944</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18792</c:v>
+                  <c:v>79380</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19172</c:v>
+                  <c:v>107680</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19480</c:v>
+                  <c:v>140796</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19888</c:v>
+                  <c:v>162424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -473,46 +473,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>17372</c:v>
+                  <c:v>12564</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17392</c:v>
+                  <c:v>12400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17464</c:v>
+                  <c:v>12436</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17380</c:v>
+                  <c:v>12804</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17524</c:v>
+                  <c:v>12452</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17576</c:v>
+                  <c:v>12312</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17664</c:v>
+                  <c:v>12700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17672</c:v>
+                  <c:v>12576</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17620</c:v>
+                  <c:v>12532</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17716</c:v>
+                  <c:v>12532</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17716</c:v>
+                  <c:v>12756</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17912</c:v>
+                  <c:v>12788</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17912</c:v>
+                  <c:v>12752</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17972</c:v>
+                  <c:v>12860</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1176,49 +1176,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3.21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.06</c:v>
+                  <c:v>11.71</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.73</c:v>
+                  <c:v>25.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.99</c:v>
+                  <c:v>45.99</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>118.61</c:v>
+                  <c:v>102.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>198.53</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>326.58</c:v>
+                  <c:v>306.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>457.8</c:v>
+                  <c:v>438.45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>877.45</c:v>
+                  <c:v>796.32</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1336.97</c:v>
+                  <c:v>1234.21</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1933.9</c:v>
+                  <c:v>1813.13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2512.9899999999998</c:v>
+                  <c:v>2396</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3271.57</c:v>
+                  <c:v>2997.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1317,49 +1317,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.51</c:v>
+                  <c:v>6.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.04</c:v>
+                  <c:v>24.39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.17</c:v>
+                  <c:v>53.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91.61</c:v>
+                  <c:v>93.74</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>195.9</c:v>
+                  <c:v>206.27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>358.63</c:v>
+                  <c:v>373.92</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>571.07000000000005</c:v>
+                  <c:v>592.85</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>817.63</c:v>
+                  <c:v>818.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1469.23</c:v>
+                  <c:v>1505.26</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2259.41</c:v>
+                  <c:v>2277.7800000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3329.47</c:v>
+                  <c:v>3383.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4372.49</c:v>
+                  <c:v>4446.96</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5462.42</c:v>
+                  <c:v>5549.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3139,8 +3139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3170,19 +3170,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="1">
-        <v>17216</v>
+        <v>12500</v>
       </c>
       <c r="C2" s="1">
-        <v>17436</v>
+        <v>12860</v>
       </c>
       <c r="H2" s="1">
         <v>16</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3190,19 +3190,19 @@
         <v>64</v>
       </c>
       <c r="B3" s="2">
-        <v>17208</v>
+        <v>12756</v>
       </c>
       <c r="C3" s="2">
-        <v>17372</v>
+        <v>12564</v>
       </c>
       <c r="H3" s="2">
         <v>64</v>
       </c>
       <c r="I3" s="2">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="J3" s="2">
-        <v>2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3210,19 +3210,19 @@
         <v>128</v>
       </c>
       <c r="B4" s="2">
-        <v>17408</v>
+        <v>12672</v>
       </c>
       <c r="C4" s="2">
-        <v>17392</v>
+        <v>12400</v>
       </c>
       <c r="H4" s="2">
         <v>128</v>
       </c>
       <c r="I4" s="2">
-        <v>3</v>
+        <v>3.21</v>
       </c>
       <c r="J4" s="2">
-        <v>6.51</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3230,19 +3230,19 @@
         <v>256</v>
       </c>
       <c r="B5" s="2">
-        <v>17572</v>
+        <v>13276</v>
       </c>
       <c r="C5" s="2">
-        <v>17464</v>
+        <v>12436</v>
       </c>
       <c r="H5" s="2">
         <v>256</v>
       </c>
       <c r="I5" s="2">
-        <v>12.06</v>
+        <v>11.71</v>
       </c>
       <c r="J5" s="2">
-        <v>23.04</v>
+        <v>24.39</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3250,19 +3250,19 @@
         <v>384</v>
       </c>
       <c r="B6" s="2">
-        <v>17480</v>
+        <v>13968</v>
       </c>
       <c r="C6" s="2">
-        <v>17380</v>
+        <v>12804</v>
       </c>
       <c r="H6" s="2">
         <v>384</v>
       </c>
       <c r="I6" s="2">
-        <v>30.73</v>
+        <v>25.82</v>
       </c>
       <c r="J6" s="2">
-        <v>52.17</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3270,19 +3270,19 @@
         <v>512</v>
       </c>
       <c r="B7" s="2">
-        <v>18248</v>
+        <v>15040</v>
       </c>
       <c r="C7" s="2">
-        <v>17524</v>
+        <v>12452</v>
       </c>
       <c r="H7" s="2">
         <v>512</v>
       </c>
       <c r="I7" s="2">
-        <v>46.99</v>
+        <v>45.99</v>
       </c>
       <c r="J7" s="2">
-        <v>91.61</v>
+        <v>93.74</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3290,19 +3290,19 @@
         <v>768</v>
       </c>
       <c r="B8" s="2">
-        <v>17964</v>
+        <v>18332</v>
       </c>
       <c r="C8" s="2">
-        <v>17576</v>
+        <v>12312</v>
       </c>
       <c r="H8" s="2">
         <v>768</v>
       </c>
       <c r="I8" s="2">
-        <v>118.61</v>
+        <v>102.8</v>
       </c>
       <c r="J8" s="2">
-        <v>195.9</v>
+        <v>206.27</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3310,19 +3310,19 @@
         <v>1024</v>
       </c>
       <c r="B9" s="2">
-        <v>18008</v>
+        <v>23080</v>
       </c>
       <c r="C9" s="2">
-        <v>17664</v>
+        <v>12700</v>
       </c>
       <c r="H9" s="2">
         <v>1024</v>
       </c>
       <c r="I9" s="2">
-        <v>198.53</v>
+        <v>191</v>
       </c>
       <c r="J9" s="2">
-        <v>358.63</v>
+        <v>373.92</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3330,19 +3330,19 @@
         <v>1280</v>
       </c>
       <c r="B10" s="2">
-        <v>18488</v>
+        <v>28944</v>
       </c>
       <c r="C10" s="2">
-        <v>17672</v>
+        <v>12576</v>
       </c>
       <c r="H10" s="2">
         <v>1280</v>
       </c>
       <c r="I10" s="2">
-        <v>326.58</v>
+        <v>306.33</v>
       </c>
       <c r="J10" s="2">
-        <v>571.07000000000005</v>
+        <v>592.85</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3350,19 +3350,19 @@
         <v>1536</v>
       </c>
       <c r="B11" s="2">
-        <v>18376</v>
+        <v>36208</v>
       </c>
       <c r="C11" s="2">
-        <v>17620</v>
+        <v>12532</v>
       </c>
       <c r="H11" s="2">
         <v>1536</v>
       </c>
       <c r="I11" s="2">
-        <v>457.8</v>
+        <v>438.45</v>
       </c>
       <c r="J11" s="2">
-        <v>817.63</v>
+        <v>818.8</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3370,19 +3370,19 @@
         <v>2048</v>
       </c>
       <c r="B12" s="2">
-        <v>18188</v>
+        <v>54944</v>
       </c>
       <c r="C12" s="2">
-        <v>17716</v>
+        <v>12532</v>
       </c>
       <c r="H12" s="2">
         <v>2048</v>
       </c>
       <c r="I12" s="2">
-        <v>877.45</v>
+        <v>796.32</v>
       </c>
       <c r="J12" s="2">
-        <v>1469.23</v>
+        <v>1505.26</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3390,19 +3390,19 @@
         <v>2560</v>
       </c>
       <c r="B13" s="2">
-        <v>18792</v>
+        <v>79380</v>
       </c>
       <c r="C13" s="2">
-        <v>17716</v>
+        <v>12756</v>
       </c>
       <c r="H13" s="2">
         <v>2560</v>
       </c>
       <c r="I13" s="2">
-        <v>1336.97</v>
+        <v>1234.21</v>
       </c>
       <c r="J13" s="2">
-        <v>2259.41</v>
+        <v>2277.7800000000002</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3410,19 +3410,19 @@
         <v>3072</v>
       </c>
       <c r="B14" s="2">
-        <v>19172</v>
+        <v>107680</v>
       </c>
       <c r="C14" s="2">
-        <v>17912</v>
+        <v>12788</v>
       </c>
       <c r="H14" s="2">
         <v>3072</v>
       </c>
       <c r="I14" s="2">
-        <v>1933.9</v>
+        <v>1813.13</v>
       </c>
       <c r="J14" s="2">
-        <v>3329.47</v>
+        <v>3383.6</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3430,19 +3430,19 @@
         <v>3584</v>
       </c>
       <c r="B15" s="2">
-        <v>19480</v>
+        <v>140796</v>
       </c>
       <c r="C15" s="2">
-        <v>17912</v>
+        <v>12752</v>
       </c>
       <c r="H15" s="2">
         <v>3584</v>
       </c>
       <c r="I15" s="2">
-        <v>2512.9899999999998</v>
+        <v>2396</v>
       </c>
       <c r="J15" s="2">
-        <v>4372.49</v>
+        <v>4446.96</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3450,24 +3450,25 @@
         <v>3968</v>
       </c>
       <c r="B16" s="2">
-        <v>19888</v>
+        <v>162424</v>
       </c>
       <c r="C16" s="2">
-        <v>17972</v>
+        <v>12860</v>
       </c>
       <c r="H16" s="2">
         <v>3968</v>
       </c>
       <c r="I16" s="2">
-        <v>3271.57</v>
+        <v>2997.05</v>
       </c>
       <c r="J16" s="2">
-        <v>5462.42</v>
+        <v>5549.73</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uscedu-my.sharepoint.com/personal/baihuaya_usc_edu/Documents/Fall_2022/csci-570/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_F25DC773A252ABDACC10481BB1D847945ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F53A30E-6BE3-4F9A-BB6F-5A1765D4DFF2}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_F25DC773A252ABDACC10481BB1D847945ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F49D65ED-FD09-4E2F-8988-F34E529C2B45}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -117,16 +117,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -322,46 +352,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>12756</c:v>
+                  <c:v>12192</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12672</c:v>
+                  <c:v>12620</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13276</c:v>
+                  <c:v>12908</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13968</c:v>
+                  <c:v>13808</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15040</c:v>
+                  <c:v>13716</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18332</c:v>
+                  <c:v>13220</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23080</c:v>
+                  <c:v>15024</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28944</c:v>
+                  <c:v>16748</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36208</c:v>
+                  <c:v>18188</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54944</c:v>
+                  <c:v>20796</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>79380</c:v>
+                  <c:v>23216</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>107680</c:v>
+                  <c:v>25392</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>140796</c:v>
+                  <c:v>26796</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>162424</c:v>
+                  <c:v>28792</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -473,46 +503,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>12564</c:v>
+                  <c:v>12436</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12400</c:v>
+                  <c:v>12352</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12436</c:v>
+                  <c:v>12312</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12804</c:v>
+                  <c:v>12344</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12452</c:v>
+                  <c:v>12448</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12312</c:v>
+                  <c:v>12420</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12700</c:v>
+                  <c:v>12352</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12576</c:v>
+                  <c:v>12824</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12532</c:v>
+                  <c:v>12780</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12532</c:v>
+                  <c:v>12808</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12756</c:v>
+                  <c:v>12812</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12788</c:v>
+                  <c:v>12812</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12752</c:v>
+                  <c:v>13108</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12860</c:v>
+                  <c:v>13024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1176,49 +1206,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.16</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.21</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.71</c:v>
+                  <c:v>8.17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.82</c:v>
+                  <c:v>18.239999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.99</c:v>
+                  <c:v>42.46</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>102.8</c:v>
+                  <c:v>91.98</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>191</c:v>
+                  <c:v>177.36</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>306.33</c:v>
+                  <c:v>237.65</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>438.45</c:v>
+                  <c:v>364.31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>796.32</c:v>
+                  <c:v>708.78</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1234.21</c:v>
+                  <c:v>1010.89</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1813.13</c:v>
+                  <c:v>1519.85</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2396</c:v>
+                  <c:v>2021.03</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2997.05</c:v>
+                  <c:v>2606.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1317,49 +1347,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.37</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9</c:v>
+                  <c:v>1.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6</c:v>
+                  <c:v>5.45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.39</c:v>
+                  <c:v>17.79</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53.5</c:v>
+                  <c:v>36.72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>93.74</c:v>
+                  <c:v>65.510000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>206.27</c:v>
+                  <c:v>145.27000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>373.92</c:v>
+                  <c:v>262.05</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>592.85</c:v>
+                  <c:v>432.11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>818.8</c:v>
+                  <c:v>604.14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1505.26</c:v>
+                  <c:v>1084.3699999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2277.7800000000002</c:v>
+                  <c:v>1690.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3383.6</c:v>
+                  <c:v>2521.86</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4446.96</c:v>
+                  <c:v>3227.96</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5549.73</c:v>
+                  <c:v>4108.8999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3139,8 +3169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3170,19 +3200,19 @@
         <v>16</v>
       </c>
       <c r="B2" s="1">
-        <v>12500</v>
-      </c>
-      <c r="C2" s="1">
-        <v>12860</v>
+        <v>12204</v>
+      </c>
+      <c r="C2" s="3">
+        <v>12436</v>
       </c>
       <c r="H2" s="1">
         <v>16</v>
       </c>
       <c r="I2" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.37</v>
+        <v>0.1</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.19</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3190,19 +3220,19 @@
         <v>64</v>
       </c>
       <c r="B3" s="2">
-        <v>12756</v>
-      </c>
-      <c r="C3" s="2">
-        <v>12564</v>
+        <v>12192</v>
+      </c>
+      <c r="C3" s="4">
+        <v>12436</v>
       </c>
       <c r="H3" s="2">
         <v>64</v>
       </c>
       <c r="I3" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1.9</v>
+        <v>0.61</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1.65</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3210,19 +3240,19 @@
         <v>128</v>
       </c>
       <c r="B4" s="2">
-        <v>12672</v>
-      </c>
-      <c r="C4" s="2">
-        <v>12400</v>
+        <v>12620</v>
+      </c>
+      <c r="C4" s="4">
+        <v>12352</v>
       </c>
       <c r="H4" s="2">
         <v>128</v>
       </c>
       <c r="I4" s="2">
-        <v>3.21</v>
-      </c>
-      <c r="J4" s="2">
-        <v>6.6</v>
+        <v>3.1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>5.45</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3230,19 +3260,19 @@
         <v>256</v>
       </c>
       <c r="B5" s="2">
-        <v>13276</v>
-      </c>
-      <c r="C5" s="2">
-        <v>12436</v>
+        <v>12908</v>
+      </c>
+      <c r="C5" s="4">
+        <v>12312</v>
       </c>
       <c r="H5" s="2">
         <v>256</v>
       </c>
       <c r="I5" s="2">
-        <v>11.71</v>
-      </c>
-      <c r="J5" s="2">
-        <v>24.39</v>
+        <v>8.17</v>
+      </c>
+      <c r="J5" s="4">
+        <v>17.79</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3250,19 +3280,19 @@
         <v>384</v>
       </c>
       <c r="B6" s="2">
-        <v>13968</v>
-      </c>
-      <c r="C6" s="2">
-        <v>12804</v>
+        <v>13808</v>
+      </c>
+      <c r="C6" s="4">
+        <v>12344</v>
       </c>
       <c r="H6" s="2">
         <v>384</v>
       </c>
       <c r="I6" s="2">
-        <v>25.82</v>
-      </c>
-      <c r="J6" s="2">
-        <v>53.5</v>
+        <v>18.239999999999998</v>
+      </c>
+      <c r="J6" s="4">
+        <v>36.72</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3270,19 +3300,19 @@
         <v>512</v>
       </c>
       <c r="B7" s="2">
-        <v>15040</v>
-      </c>
-      <c r="C7" s="2">
-        <v>12452</v>
+        <v>13716</v>
+      </c>
+      <c r="C7" s="4">
+        <v>12448</v>
       </c>
       <c r="H7" s="2">
         <v>512</v>
       </c>
       <c r="I7" s="2">
-        <v>45.99</v>
-      </c>
-      <c r="J7" s="2">
-        <v>93.74</v>
+        <v>42.46</v>
+      </c>
+      <c r="J7" s="4">
+        <v>65.510000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3290,19 +3320,19 @@
         <v>768</v>
       </c>
       <c r="B8" s="2">
-        <v>18332</v>
-      </c>
-      <c r="C8" s="2">
-        <v>12312</v>
+        <v>13220</v>
+      </c>
+      <c r="C8" s="4">
+        <v>12420</v>
       </c>
       <c r="H8" s="2">
         <v>768</v>
       </c>
       <c r="I8" s="2">
-        <v>102.8</v>
-      </c>
-      <c r="J8" s="2">
-        <v>206.27</v>
+        <v>91.98</v>
+      </c>
+      <c r="J8" s="4">
+        <v>145.27000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3310,19 +3340,19 @@
         <v>1024</v>
       </c>
       <c r="B9" s="2">
-        <v>23080</v>
-      </c>
-      <c r="C9" s="2">
-        <v>12700</v>
+        <v>15024</v>
+      </c>
+      <c r="C9" s="4">
+        <v>12352</v>
       </c>
       <c r="H9" s="2">
         <v>1024</v>
       </c>
       <c r="I9" s="2">
-        <v>191</v>
-      </c>
-      <c r="J9" s="2">
-        <v>373.92</v>
+        <v>177.36</v>
+      </c>
+      <c r="J9" s="4">
+        <v>262.05</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3330,19 +3360,19 @@
         <v>1280</v>
       </c>
       <c r="B10" s="2">
-        <v>28944</v>
-      </c>
-      <c r="C10" s="2">
-        <v>12576</v>
+        <v>16748</v>
+      </c>
+      <c r="C10" s="4">
+        <v>12824</v>
       </c>
       <c r="H10" s="2">
         <v>1280</v>
       </c>
       <c r="I10" s="2">
-        <v>306.33</v>
-      </c>
-      <c r="J10" s="2">
-        <v>592.85</v>
+        <v>237.65</v>
+      </c>
+      <c r="J10" s="4">
+        <v>432.11</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3350,19 +3380,19 @@
         <v>1536</v>
       </c>
       <c r="B11" s="2">
-        <v>36208</v>
-      </c>
-      <c r="C11" s="2">
-        <v>12532</v>
+        <v>18188</v>
+      </c>
+      <c r="C11" s="4">
+        <v>12780</v>
       </c>
       <c r="H11" s="2">
         <v>1536</v>
       </c>
       <c r="I11" s="2">
-        <v>438.45</v>
-      </c>
-      <c r="J11" s="2">
-        <v>818.8</v>
+        <v>364.31</v>
+      </c>
+      <c r="J11" s="4">
+        <v>604.14</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3370,19 +3400,19 @@
         <v>2048</v>
       </c>
       <c r="B12" s="2">
-        <v>54944</v>
-      </c>
-      <c r="C12" s="2">
-        <v>12532</v>
+        <v>20796</v>
+      </c>
+      <c r="C12" s="4">
+        <v>12808</v>
       </c>
       <c r="H12" s="2">
         <v>2048</v>
       </c>
       <c r="I12" s="2">
-        <v>796.32</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1505.26</v>
+        <v>708.78</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1084.3699999999999</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3390,19 +3420,19 @@
         <v>2560</v>
       </c>
       <c r="B13" s="2">
-        <v>79380</v>
-      </c>
-      <c r="C13" s="2">
-        <v>12756</v>
+        <v>23216</v>
+      </c>
+      <c r="C13" s="4">
+        <v>12812</v>
       </c>
       <c r="H13" s="2">
         <v>2560</v>
       </c>
       <c r="I13" s="2">
-        <v>1234.21</v>
-      </c>
-      <c r="J13" s="2">
-        <v>2277.7800000000002</v>
+        <v>1010.89</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1690.4</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3410,19 +3440,19 @@
         <v>3072</v>
       </c>
       <c r="B14" s="2">
-        <v>107680</v>
-      </c>
-      <c r="C14" s="2">
-        <v>12788</v>
+        <v>25392</v>
+      </c>
+      <c r="C14" s="4">
+        <v>12812</v>
       </c>
       <c r="H14" s="2">
         <v>3072</v>
       </c>
       <c r="I14" s="2">
-        <v>1813.13</v>
-      </c>
-      <c r="J14" s="2">
-        <v>3383.6</v>
+        <v>1519.85</v>
+      </c>
+      <c r="J14" s="4">
+        <v>2521.86</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3430,19 +3460,19 @@
         <v>3584</v>
       </c>
       <c r="B15" s="2">
-        <v>140796</v>
-      </c>
-      <c r="C15" s="2">
-        <v>12752</v>
+        <v>26796</v>
+      </c>
+      <c r="C15" s="4">
+        <v>13108</v>
       </c>
       <c r="H15" s="2">
         <v>3584</v>
       </c>
       <c r="I15" s="2">
-        <v>2396</v>
-      </c>
-      <c r="J15" s="2">
-        <v>4446.96</v>
+        <v>2021.03</v>
+      </c>
+      <c r="J15" s="4">
+        <v>3227.96</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -3450,19 +3480,19 @@
         <v>3968</v>
       </c>
       <c r="B16" s="2">
-        <v>162424</v>
-      </c>
-      <c r="C16" s="2">
-        <v>12860</v>
+        <v>28792</v>
+      </c>
+      <c r="C16" s="4">
+        <v>13024</v>
       </c>
       <c r="H16" s="2">
         <v>3968</v>
       </c>
       <c r="I16" s="2">
-        <v>2997.05</v>
-      </c>
-      <c r="J16" s="2">
-        <v>5549.73</v>
+        <v>2606.02</v>
+      </c>
+      <c r="J16" s="4">
+        <v>4108.8999999999996</v>
       </c>
     </row>
   </sheetData>
